--- a/misturas_acidos.xlsx
+++ b/misturas_acidos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hexadecanol_Miristico" sheetId="1" state="visible" r:id="rId2"/>
@@ -227,7 +227,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A1:E12"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A12:G14 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -815,10 +815,10 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="A1:E12"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A12:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="6.98"/>
@@ -1066,10 +1066,10 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="A1:E12 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="A12:G14 F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -1375,10 +1375,10 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A12:G14 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -1679,10 +1679,10 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1872,11 +1872,11 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="A1:E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
@@ -2066,11 +2066,11 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A12:G14 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
